--- a/ADoc Nhóm 2 (Nghĩa - Tự - Ánh)/Database ToCoClothes ( Nghĩa - Tự - Ánh).xlsx
+++ b/ADoc Nhóm 2 (Nghĩa - Tự - Ánh)/Database ToCoClothes ( Nghĩa - Tự - Ánh).xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Orders" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="156">
   <si>
     <t>No.</t>
   </si>
@@ -479,14 +479,17 @@
     <t>Hien thi mac dinh là gia san pham thap nhat</t>
   </si>
   <si>
-    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục( truyền params categoryId) || StockTotal&gt;0 || Hien thi mac dinh gia thanh tien nho nhat.</t>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục( truyền params categoryId) || StockTotal&gt;0 || Hien thi mac dinh sản phẩm mới cập nhật</t>
+  </si>
+  <si>
+    <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục( truyền params categoryId) || StockTotal&gt;0 || Hien thi sắp xếp theo giảm giá nhiều nhất</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,50 +1028,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1090,18 +1058,53 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1411,11 +1414,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L123" sqref="L123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="20"/>
     <col min="2" max="2" width="23.33203125" style="20" customWidth="1"/>
@@ -1429,31 +1432,31 @@
     <col min="10" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="98" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-    </row>
-    <row r="3" spans="1:9" s="21" customFormat="1">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-    </row>
-    <row r="4" spans="1:9" s="21" customFormat="1">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+    </row>
+    <row r="3" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+    </row>
+    <row r="4" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="21" customFormat="1">
+    <row r="5" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="52">
         <v>1</v>
       </c>
@@ -1503,7 +1506,7 @@
       </c>
       <c r="I5" s="52"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <f>A5+1</f>
         <v>2</v>
@@ -1525,7 +1528,7 @@
       </c>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <f t="shared" ref="A7:A9" si="0">A6+1</f>
         <v>3</v>
@@ -1547,7 +1550,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1569,7 +1572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1591,31 +1594,31 @@
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="100" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="101"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="71" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="72">
         <v>1</v>
       </c>
@@ -1665,7 +1668,7 @@
       </c>
       <c r="I15" s="72"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="75">
         <v>2</v>
       </c>
@@ -1686,7 +1689,7 @@
       </c>
       <c r="I16" s="72"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="75">
         <v>3</v>
       </c>
@@ -1707,7 +1710,7 @@
       </c>
       <c r="I17" s="75"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="75">
         <v>4</v>
       </c>
@@ -1730,7 +1733,7 @@
       </c>
       <c r="I18" s="75"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="75">
         <v>5</v>
       </c>
@@ -1749,7 +1752,7 @@
       <c r="H19" s="75"/>
       <c r="I19" s="75"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f t="shared" ref="A20:A21" si="1">A19+1</f>
         <v>6</v>
@@ -1771,7 +1774,7 @@
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1791,31 +1794,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="21" customFormat="1">
-      <c r="A24" s="102" t="s">
+    <row r="24" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-    </row>
-    <row r="25" spans="1:9" s="21" customFormat="1">
-      <c r="A25" s="102"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-    </row>
-    <row r="26" spans="1:9" s="21" customFormat="1">
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+    </row>
+    <row r="25" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+    </row>
+    <row r="26" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>0</v>
       </c>
@@ -1844,7 +1847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="21" customFormat="1">
+    <row r="27" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30">
         <v>1</v>
       </c>
@@ -1865,7 +1868,7 @@
       </c>
       <c r="I27" s="30"/>
     </row>
-    <row r="28" spans="1:9" s="21" customFormat="1">
+    <row r="28" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30">
         <f>A27+1</f>
         <v>2</v>
@@ -1887,7 +1890,7 @@
       </c>
       <c r="I28" s="30"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="30">
         <f t="shared" ref="A29:A32" si="2">A28+1</f>
         <v>3</v>
@@ -1909,7 +1912,7 @@
       </c>
       <c r="I29" s="30"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="30">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1931,7 +1934,7 @@
       </c>
       <c r="I30" s="30"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="30">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1953,7 +1956,7 @@
       </c>
       <c r="I31" s="30"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="30">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1975,8 +1978,8 @@
       </c>
       <c r="I32" s="30"/>
     </row>
-    <row r="33" spans="1:9" s="21" customFormat="1">
-      <c r="A33" s="108">
+    <row r="33" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="120">
         <v>7</v>
       </c>
       <c r="B33" s="34" t="s">
@@ -1992,8 +1995,8 @@
       <c r="H33" s="34"/>
       <c r="I33" s="34"/>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="109"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="121"/>
       <c r="B34" s="30" t="s">
         <v>26</v>
       </c>
@@ -2011,8 +2014,8 @@
       </c>
       <c r="I34" s="30"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="109"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="121"/>
       <c r="B35" s="30" t="s">
         <v>25</v>
       </c>
@@ -2032,8 +2035,8 @@
       </c>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="109"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="121"/>
       <c r="B36" s="30" t="s">
         <v>54</v>
       </c>
@@ -2051,8 +2054,8 @@
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="109"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="121"/>
       <c r="B37" s="30" t="s">
         <v>53</v>
       </c>
@@ -2070,8 +2073,8 @@
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:9" s="21" customFormat="1" ht="16.2">
-      <c r="A38" s="109"/>
+    <row r="38" spans="1:9" s="21" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A38" s="121"/>
       <c r="B38" s="37" t="s">
         <v>27</v>
       </c>
@@ -2087,8 +2090,8 @@
       <c r="H38" s="41"/>
       <c r="I38" s="42"/>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="109"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="121"/>
       <c r="B39" s="1" t="s">
         <v>51</v>
       </c>
@@ -2106,8 +2109,8 @@
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="109"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="121"/>
       <c r="B40" s="1" t="s">
         <v>109</v>
       </c>
@@ -2125,8 +2128,8 @@
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="109"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="121"/>
       <c r="B41" s="1" t="s">
         <v>110</v>
       </c>
@@ -2144,8 +2147,8 @@
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="110"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="122"/>
       <c r="B42" s="1" t="s">
         <v>52</v>
       </c>
@@ -2163,8 +2166,8 @@
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
     </row>
-    <row r="43" spans="1:9" s="21" customFormat="1">
-      <c r="A43" s="108">
+    <row r="43" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="120">
         <v>8</v>
       </c>
       <c r="B43" s="34" t="s">
@@ -2182,8 +2185,8 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="109"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="121"/>
       <c r="B44" s="30" t="s">
         <v>96</v>
       </c>
@@ -2201,8 +2204,8 @@
       </c>
       <c r="I44" s="30"/>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="109"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="121"/>
       <c r="B45" s="30" t="s">
         <v>54</v>
       </c>
@@ -2220,8 +2223,8 @@
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="109"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="121"/>
       <c r="B46" s="30" t="s">
         <v>53</v>
       </c>
@@ -2239,8 +2242,8 @@
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="109"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="121"/>
       <c r="B47" s="30" t="s">
         <v>26</v>
       </c>
@@ -2258,8 +2261,8 @@
       </c>
       <c r="I47" s="30"/>
     </row>
-    <row r="48" spans="1:9" ht="16.2">
-      <c r="A48" s="109"/>
+    <row r="48" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A48" s="121"/>
       <c r="B48" s="37" t="s">
         <v>27</v>
       </c>
@@ -2270,15 +2273,15 @@
       <c r="E48" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="106" t="s">
+      <c r="F48" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="107"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="109"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="119"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="121"/>
       <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,8 +2299,8 @@
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="109"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="121"/>
       <c r="B50" s="1" t="s">
         <v>109</v>
       </c>
@@ -2315,8 +2318,8 @@
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="109"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="121"/>
       <c r="B51" s="1" t="s">
         <v>110</v>
       </c>
@@ -2334,8 +2337,8 @@
       <c r="H51" s="30"/>
       <c r="I51" s="30"/>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="109"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="121"/>
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
@@ -2353,8 +2356,8 @@
       <c r="H52" s="30"/>
       <c r="I52" s="30"/>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="110"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="122"/>
       <c r="B53" s="30" t="s">
         <v>49</v>
       </c>
@@ -2372,8 +2375,8 @@
       <c r="H53" s="30"/>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" s="21" customFormat="1">
-      <c r="A54" s="108">
+    <row r="54" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="120">
         <v>9</v>
       </c>
       <c r="B54" s="34" t="s">
@@ -2391,8 +2394,8 @@
       <c r="H54" s="34"/>
       <c r="I54" s="34"/>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="109"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="121"/>
       <c r="B55" s="30" t="s">
         <v>55</v>
       </c>
@@ -2408,8 +2411,8 @@
       </c>
       <c r="I55" s="30"/>
     </row>
-    <row r="56" spans="1:9" s="21" customFormat="1" ht="16.2">
-      <c r="A56" s="109"/>
+    <row r="56" spans="1:9" s="21" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A56" s="121"/>
       <c r="B56" s="37" t="s">
         <v>57</v>
       </c>
@@ -2417,16 +2420,16 @@
         <v>38</v>
       </c>
       <c r="D56" s="39"/>
-      <c r="E56" s="111" t="s">
+      <c r="E56" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="107"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="109"/>
+      <c r="F56" s="118"/>
+      <c r="G56" s="118"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="119"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="121"/>
       <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
@@ -2442,8 +2445,8 @@
       </c>
       <c r="I57" s="30"/>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="109"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="121"/>
       <c r="B58" s="1" t="s">
         <v>91</v>
       </c>
@@ -2459,8 +2462,8 @@
       <c r="H58" s="30"/>
       <c r="I58" s="30"/>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="109"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="121"/>
       <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
@@ -2478,8 +2481,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="110"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="122"/>
       <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
@@ -2497,8 +2500,8 @@
       </c>
       <c r="I60" s="30"/>
     </row>
-    <row r="61" spans="1:9" s="21" customFormat="1">
-      <c r="A61" s="112">
+    <row r="61" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="124">
         <v>10</v>
       </c>
       <c r="B61" s="34" t="s">
@@ -2514,8 +2517,8 @@
       <c r="H61" s="34"/>
       <c r="I61" s="34"/>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="112"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="124"/>
       <c r="B62" s="30" t="s">
         <v>112</v>
       </c>
@@ -2533,8 +2536,8 @@
       </c>
       <c r="I62" s="30"/>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="112"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="124"/>
       <c r="B63" s="30" t="s">
         <v>117</v>
       </c>
@@ -2548,8 +2551,8 @@
       <c r="H63" s="34"/>
       <c r="I63" s="30"/>
     </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="112"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="124"/>
       <c r="B64" s="30" t="s">
         <v>41</v>
       </c>
@@ -2563,8 +2566,8 @@
       <c r="H64" s="30"/>
       <c r="I64" s="30"/>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="112"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="124"/>
       <c r="B65" s="30" t="s">
         <v>43</v>
       </c>
@@ -2578,8 +2581,8 @@
       <c r="H65" s="30"/>
       <c r="I65" s="30"/>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="112"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="124"/>
       <c r="B66" s="30" t="s">
         <v>44</v>
       </c>
@@ -2593,8 +2596,8 @@
       <c r="H66" s="30"/>
       <c r="I66" s="30"/>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="108">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="120">
         <v>11</v>
       </c>
       <c r="B67" s="34" t="s">
@@ -2610,8 +2613,8 @@
       <c r="H67" s="34"/>
       <c r="I67" s="34"/>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="109"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="121"/>
       <c r="B68" s="30" t="s">
         <v>101</v>
       </c>
@@ -2629,8 +2632,8 @@
       </c>
       <c r="I68" s="30"/>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="109"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="121"/>
       <c r="B69" s="30" t="s">
         <v>102</v>
       </c>
@@ -2648,8 +2651,8 @@
       </c>
       <c r="I69" s="30"/>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="110"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="122"/>
       <c r="B70" s="30" t="s">
         <v>93</v>
       </c>
@@ -2665,31 +2668,31 @@
       <c r="H70" s="30"/>
       <c r="I70" s="30"/>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="100" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="100"/>
-      <c r="C73" s="100"/>
-      <c r="D73" s="100"/>
-      <c r="E73" s="100"/>
-      <c r="F73" s="100"/>
-      <c r="G73" s="100"/>
-      <c r="H73" s="100"/>
-      <c r="I73" s="100"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="101"/>
-      <c r="B74" s="101"/>
-      <c r="C74" s="101"/>
-      <c r="D74" s="101"/>
-      <c r="E74" s="101"/>
-      <c r="F74" s="101"/>
-      <c r="G74" s="101"/>
-      <c r="H74" s="101"/>
-      <c r="I74" s="101"/>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="B73" s="112"/>
+      <c r="C73" s="112"/>
+      <c r="D73" s="112"/>
+      <c r="E73" s="112"/>
+      <c r="F73" s="112"/>
+      <c r="G73" s="112"/>
+      <c r="H73" s="112"/>
+      <c r="I73" s="112"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="113"/>
+      <c r="B74" s="113"/>
+      <c r="C74" s="113"/>
+      <c r="D74" s="113"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="113"/>
+      <c r="G74" s="113"/>
+      <c r="H74" s="113"/>
+      <c r="I74" s="113"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="71" t="s">
         <v>0</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="72">
         <v>1</v>
       </c>
@@ -2739,7 +2742,7 @@
       </c>
       <c r="I76" s="72"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="75">
         <f>A76+1</f>
         <v>2</v>
@@ -2761,7 +2764,7 @@
       </c>
       <c r="I77" s="72"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="75">
         <f>A77+1</f>
         <v>3</v>
@@ -2779,7 +2782,7 @@
       <c r="H78" s="75"/>
       <c r="I78" s="72"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="79">
         <f t="shared" ref="A79:A82" si="3">A78+1</f>
         <v>4</v>
@@ -2799,7 +2802,7 @@
       <c r="H79" s="75"/>
       <c r="I79" s="72"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="75">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -2819,7 +2822,7 @@
       <c r="H80" s="75"/>
       <c r="I80" s="75"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="75">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -2839,7 +2842,7 @@
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="75">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2861,31 +2864,31 @@
       <c r="H82" s="75"/>
       <c r="I82" s="75"/>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="103" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="103"/>
-      <c r="C86" s="103"/>
-      <c r="D86" s="103"/>
-      <c r="E86" s="103"/>
-      <c r="F86" s="103"/>
-      <c r="G86" s="103"/>
-      <c r="H86" s="103"/>
-      <c r="I86" s="103"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="104"/>
-      <c r="B87" s="104"/>
-      <c r="C87" s="104"/>
-      <c r="D87" s="104"/>
-      <c r="E87" s="104"/>
-      <c r="F87" s="104"/>
-      <c r="G87" s="104"/>
-      <c r="H87" s="104"/>
-      <c r="I87" s="104"/>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="115"/>
+      <c r="G86" s="115"/>
+      <c r="H86" s="115"/>
+      <c r="I86" s="115"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="116"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="116"/>
+      <c r="D87" s="116"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="116"/>
+      <c r="G87" s="116"/>
+      <c r="H87" s="116"/>
+      <c r="I87" s="116"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>0</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>1</v>
       </c>
@@ -2935,7 +2938,7 @@
       </c>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <f>A89+1</f>
         <v>2</v>
@@ -2957,7 +2960,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <f t="shared" ref="A91:A93" si="4">A90+1</f>
         <v>3</v>
@@ -2977,7 +2980,7 @@
       <c r="H91" s="10"/>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3001,7 +3004,7 @@
       </c>
       <c r="I92" s="19"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3023,34 +3026,34 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="98" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="98"/>
-      <c r="C99" s="98"/>
-      <c r="D99" s="98"/>
-      <c r="E99" s="98"/>
-      <c r="F99" s="98"/>
-      <c r="G99" s="98"/>
-      <c r="H99" s="98"/>
-      <c r="I99" s="98"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="105"/>
-      <c r="B100" s="105"/>
-      <c r="C100" s="105"/>
-      <c r="D100" s="105"/>
-      <c r="E100" s="105"/>
-      <c r="F100" s="105"/>
-      <c r="G100" s="105"/>
-      <c r="H100" s="105"/>
-      <c r="I100" s="105"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="B99" s="110"/>
+      <c r="C99" s="110"/>
+      <c r="D99" s="110"/>
+      <c r="E99" s="110"/>
+      <c r="F99" s="110"/>
+      <c r="G99" s="110"/>
+      <c r="H99" s="110"/>
+      <c r="I99" s="110"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="117"/>
+      <c r="B100" s="117"/>
+      <c r="C100" s="117"/>
+      <c r="D100" s="117"/>
+      <c r="E100" s="117"/>
+      <c r="F100" s="117"/>
+      <c r="G100" s="117"/>
+      <c r="H100" s="117"/>
+      <c r="I100" s="117"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="46" t="s">
         <v>0</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="47">
         <v>1</v>
       </c>
@@ -3100,7 +3103,7 @@
       </c>
       <c r="I102" s="47"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="48">
         <f>A102+1</f>
         <v>2</v>
@@ -3120,7 +3123,7 @@
       <c r="H103" s="52"/>
       <c r="I103" s="48"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="48">
         <f t="shared" ref="A104:A106" si="5">A103+1</f>
         <v>3</v>
@@ -3142,7 +3145,7 @@
       <c r="H104" s="48"/>
       <c r="I104" s="48"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="48">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3162,7 +3165,7 @@
       <c r="H105" s="23"/>
       <c r="I105" s="23"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="53">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3184,7 +3187,7 @@
       </c>
       <c r="I106" s="53"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="58">
         <v>6</v>
       </c>
@@ -3205,20 +3208,20 @@
       </c>
       <c r="I107" s="58"/>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="117" t="s">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="B111" s="118"/>
-      <c r="C111" s="118"/>
-      <c r="D111" s="118"/>
-      <c r="E111" s="118"/>
+      <c r="B111" s="107"/>
+      <c r="C111" s="107"/>
+      <c r="D111" s="107"/>
+      <c r="E111" s="107"/>
       <c r="F111" s="83"/>
       <c r="G111" s="83"/>
       <c r="H111" s="83"/>
       <c r="I111" s="83"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="84" t="s">
         <v>0</v>
       </c>
@@ -3247,7 +3250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="85">
         <v>1</v>
       </c>
@@ -3268,7 +3271,7 @@
       <c r="H113" s="85"/>
       <c r="I113" s="85"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="88">
         <v>2</v>
       </c>
@@ -3289,7 +3292,7 @@
       <c r="H114" s="88"/>
       <c r="I114" s="88"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="88">
         <v>3</v>
       </c>
@@ -3310,7 +3313,7 @@
       <c r="H115" s="88"/>
       <c r="I115" s="88"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="88">
         <v>4</v>
       </c>
@@ -3331,7 +3334,7 @@
       <c r="H116" s="88"/>
       <c r="I116" s="88"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="88">
         <v>5</v>
       </c>
@@ -3354,7 +3357,7 @@
       </c>
       <c r="I117" s="88"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="88">
         <v>6</v>
       </c>
@@ -3375,7 +3378,7 @@
       </c>
       <c r="I118" s="88"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="92">
         <v>7</v>
       </c>
@@ -3394,7 +3397,7 @@
       <c r="H119" s="92"/>
       <c r="I119" s="92"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="92">
         <v>8</v>
       </c>
@@ -3415,30 +3418,30 @@
       <c r="H120" s="92"/>
       <c r="I120" s="92"/>
     </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="122">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="98">
         <v>9</v>
       </c>
-      <c r="B121" s="122" t="s">
+      <c r="B121" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="124"/>
-      <c r="E121" s="125" t="s">
+      <c r="C121" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="100"/>
+      <c r="E121" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="122"/>
-      <c r="G121" s="122" t="s">
+      <c r="F121" s="98"/>
+      <c r="G121" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="H121" s="122" t="s">
+      <c r="H121" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="I121" s="122"/>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="I121" s="98"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="96"/>
       <c r="B122" s="96"/>
       <c r="C122" s="96"/>
@@ -3449,20 +3452,20 @@
       <c r="H122" s="96"/>
       <c r="I122" s="96"/>
     </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="119" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="B123" s="120"/>
-      <c r="C123" s="120"/>
-      <c r="D123" s="120"/>
-      <c r="E123" s="120"/>
+      <c r="B123" s="109"/>
+      <c r="C123" s="109"/>
+      <c r="D123" s="109"/>
+      <c r="E123" s="109"/>
       <c r="F123" s="97"/>
       <c r="G123" s="97"/>
       <c r="H123" s="97"/>
       <c r="I123" s="97"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="49" t="s">
         <v>0</v>
       </c>
@@ -3491,7 +3494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="21" customFormat="1">
+    <row r="125" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="47">
         <v>1</v>
       </c>
@@ -3512,7 +3515,7 @@
       </c>
       <c r="I125" s="47"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="48">
         <v>2</v>
       </c>
@@ -3533,7 +3536,7 @@
       </c>
       <c r="I126" s="48"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="48">
         <v>3</v>
       </c>
@@ -3552,7 +3555,7 @@
       <c r="H127" s="48"/>
       <c r="I127" s="48"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="48">
         <v>4</v>
       </c>
@@ -3573,7 +3576,7 @@
       </c>
       <c r="I128" s="48"/>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="48">
         <v>5</v>
       </c>
@@ -3594,7 +3597,7 @@
       </c>
       <c r="I129" s="48"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="48">
         <v>6</v>
       </c>
@@ -3613,7 +3616,7 @@
       <c r="H130" s="48"/>
       <c r="I130" s="48"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="48">
         <v>7</v>
       </c>
@@ -3634,7 +3637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="48">
         <v>8</v>
       </c>
@@ -3655,8 +3658,8 @@
       <c r="H132" s="48"/>
       <c r="I132" s="48"/>
     </row>
-    <row r="133" spans="1:12" s="21" customFormat="1">
-      <c r="A133" s="113">
+    <row r="133" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="102">
         <v>9</v>
       </c>
       <c r="B133" s="63" t="s">
@@ -3676,8 +3679,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="58" customFormat="1">
-      <c r="A134" s="114"/>
+    <row r="134" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="103"/>
       <c r="B134" s="23" t="s">
         <v>132</v>
       </c>
@@ -3696,8 +3699,8 @@
       <c r="K134" s="64"/>
       <c r="L134" s="64"/>
     </row>
-    <row r="135" spans="1:12" s="58" customFormat="1">
-      <c r="A135" s="115"/>
+    <row r="135" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="104"/>
       <c r="B135" s="23" t="s">
         <v>133</v>
       </c>
@@ -3718,8 +3721,8 @@
       <c r="K135" s="64"/>
       <c r="L135" s="64"/>
     </row>
-    <row r="136" spans="1:12" s="21" customFormat="1">
-      <c r="A136" s="116">
+    <row r="136" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="105">
         <v>10</v>
       </c>
       <c r="B136" s="52" t="s">
@@ -3735,8 +3738,8 @@
       <c r="H136" s="52"/>
       <c r="I136" s="52"/>
     </row>
-    <row r="137" spans="1:12" s="69" customFormat="1" ht="16.2">
-      <c r="A137" s="116"/>
+    <row r="137" spans="1:12" s="69" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A137" s="105"/>
       <c r="B137" s="66" t="s">
         <v>9</v>
       </c>
@@ -3754,8 +3757,8 @@
       </c>
       <c r="I137" s="66"/>
     </row>
-    <row r="138" spans="1:12" s="21" customFormat="1">
-      <c r="A138" s="116"/>
+    <row r="138" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="105"/>
       <c r="B138" s="23" t="s">
         <v>135</v>
       </c>
@@ -3771,8 +3774,8 @@
       </c>
       <c r="I138" s="52"/>
     </row>
-    <row r="139" spans="1:12">
-      <c r="A139" s="116"/>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="105"/>
       <c r="B139" s="23" t="s">
         <v>117</v>
       </c>
@@ -3788,8 +3791,8 @@
       </c>
       <c r="I139" s="23"/>
     </row>
-    <row r="140" spans="1:12">
-      <c r="A140" s="116"/>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="105"/>
       <c r="B140" s="23" t="s">
         <v>83</v>
       </c>
@@ -3803,8 +3806,8 @@
       <c r="H140" s="23"/>
       <c r="I140" s="23"/>
     </row>
-    <row r="141" spans="1:12">
-      <c r="A141" s="116"/>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="105"/>
       <c r="B141" s="23" t="s">
         <v>43</v>
       </c>
@@ -3818,8 +3821,8 @@
       <c r="H141" s="23"/>
       <c r="I141" s="23"/>
     </row>
-    <row r="142" spans="1:12">
-      <c r="A142" s="116"/>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="105"/>
       <c r="B142" s="23" t="s">
         <v>44</v>
       </c>
@@ -3833,32 +3836,32 @@
       <c r="H142" s="23"/>
       <c r="I142" s="23"/>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B143" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B145" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B146" s="20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B147" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B148" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="20" t="s">
         <v>121</v>
       </c>
@@ -3866,18 +3869,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B153" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B155" s="20" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A67:A70"/>
     <mergeCell ref="A133:A135"/>
     <mergeCell ref="A136:A142"/>
     <mergeCell ref="A111:E111"/>
@@ -3894,7 +3898,6 @@
     <mergeCell ref="E56:I56"/>
     <mergeCell ref="A61:A66"/>
     <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A67:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3903,13 +3906,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D16"/>
+  <dimension ref="A4:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="130.21875" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.109375" customWidth="1"/>
@@ -3919,17 +3922,17 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -3940,7 +3943,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -3951,96 +3954,104 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.8">
-      <c r="A10" s="121">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="121"/>
-      <c r="B11" s="3" t="s">
-        <v>147</v>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="125">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="121"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="125"/>
       <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8">
-      <c r="A13" s="2">
-        <v>5</v>
-      </c>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="125"/>
       <c r="B13" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
         <v>141</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="7" customFormat="1">
-      <c r="A16" s="5">
+    <row r="17" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>8</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ADoc Nhóm 2 (Nghĩa - Tự - Ánh)/Database ToCoClothes ( Nghĩa - Tự - Ánh).xlsx
+++ b/ADoc Nhóm 2 (Nghĩa - Tự - Ánh)/Database ToCoClothes ( Nghĩa - Tự - Ánh).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="156">
   <si>
     <t>No.</t>
   </si>
@@ -1038,6 +1038,15 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1087,15 +1096,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1433,28 +1433,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
     </row>
     <row r="4" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
@@ -1595,28 +1595,28 @@
       <c r="I9" s="23"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="71" t="s">
@@ -1795,28 +1795,28 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="114" t="s">
+      <c r="A24" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
     </row>
     <row r="25" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="114"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
     </row>
     <row r="26" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
@@ -1979,7 +1979,7 @@
       <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="120">
+      <c r="A33" s="102">
         <v>7</v>
       </c>
       <c r="B33" s="34" t="s">
@@ -1996,7 +1996,7 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="121"/>
+      <c r="A34" s="103"/>
       <c r="B34" s="30" t="s">
         <v>26</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="121"/>
+      <c r="A35" s="103"/>
       <c r="B35" s="30" t="s">
         <v>25</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="121"/>
+      <c r="A36" s="103"/>
       <c r="B36" s="30" t="s">
         <v>54</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="121"/>
+      <c r="A37" s="103"/>
       <c r="B37" s="30" t="s">
         <v>53</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" s="21" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A38" s="121"/>
+      <c r="A38" s="103"/>
       <c r="B38" s="37" t="s">
         <v>27</v>
       </c>
@@ -2091,7 +2091,7 @@
       <c r="I38" s="42"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="121"/>
+      <c r="A39" s="103"/>
       <c r="B39" s="1" t="s">
         <v>51</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="121"/>
+      <c r="A40" s="103"/>
       <c r="B40" s="1" t="s">
         <v>109</v>
       </c>
@@ -2129,7 +2129,7 @@
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="121"/>
+      <c r="A41" s="103"/>
       <c r="B41" s="1" t="s">
         <v>110</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="122"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="1" t="s">
         <v>52</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="120">
+      <c r="A43" s="102">
         <v>8</v>
       </c>
       <c r="B43" s="34" t="s">
@@ -2186,7 +2186,7 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="121"/>
+      <c r="A44" s="103"/>
       <c r="B44" s="30" t="s">
         <v>96</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="121"/>
+      <c r="A45" s="103"/>
       <c r="B45" s="30" t="s">
         <v>54</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="I45" s="30"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="121"/>
+      <c r="A46" s="103"/>
       <c r="B46" s="30" t="s">
         <v>53</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="121"/>
+      <c r="A47" s="103"/>
       <c r="B47" s="30" t="s">
         <v>26</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="I47" s="30"/>
     </row>
     <row r="48" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A48" s="121"/>
+      <c r="A48" s="103"/>
       <c r="B48" s="37" t="s">
         <v>27</v>
       </c>
@@ -2273,15 +2273,15 @@
       <c r="E48" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="118" t="s">
+      <c r="F48" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="118"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="119"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="122"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="121"/>
+      <c r="A49" s="103"/>
       <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
@@ -2300,7 +2300,7 @@
       <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="121"/>
+      <c r="A50" s="103"/>
       <c r="B50" s="1" t="s">
         <v>109</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="I50" s="30"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="121"/>
+      <c r="A51" s="103"/>
       <c r="B51" s="1" t="s">
         <v>110</v>
       </c>
@@ -2338,7 +2338,7 @@
       <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="121"/>
+      <c r="A52" s="103"/>
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="122"/>
+      <c r="A53" s="104"/>
       <c r="B53" s="30" t="s">
         <v>49</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="I53" s="30"/>
     </row>
     <row r="54" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="120">
+      <c r="A54" s="102">
         <v>9</v>
       </c>
       <c r="B54" s="34" t="s">
@@ -2395,7 +2395,7 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="121"/>
+      <c r="A55" s="103"/>
       <c r="B55" s="30" t="s">
         <v>55</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9" s="21" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A56" s="121"/>
+      <c r="A56" s="103"/>
       <c r="B56" s="37" t="s">
         <v>57</v>
       </c>
@@ -2423,13 +2423,13 @@
       <c r="E56" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="118"/>
-      <c r="G56" s="118"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="119"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="122"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="121"/>
+      <c r="A57" s="103"/>
       <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
@@ -2446,7 +2446,7 @@
       <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="121"/>
+      <c r="A58" s="103"/>
       <c r="B58" s="1" t="s">
         <v>91</v>
       </c>
@@ -2463,7 +2463,7 @@
       <c r="I58" s="30"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="121"/>
+      <c r="A59" s="103"/>
       <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
@@ -2482,7 +2482,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="122"/>
+      <c r="A60" s="104"/>
       <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="I66" s="30"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="120">
+      <c r="A67" s="102">
         <v>11</v>
       </c>
       <c r="B67" s="34" t="s">
@@ -2614,7 +2614,7 @@
       <c r="I67" s="34"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="121"/>
+      <c r="A68" s="103"/>
       <c r="B68" s="30" t="s">
         <v>101</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="121"/>
+      <c r="A69" s="103"/>
       <c r="B69" s="30" t="s">
         <v>102</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="122"/>
+      <c r="A70" s="104"/>
       <c r="B70" s="30" t="s">
         <v>93</v>
       </c>
@@ -2669,28 +2669,28 @@
       <c r="I70" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="112" t="s">
+      <c r="A73" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="112"/>
-      <c r="C73" s="112"/>
-      <c r="D73" s="112"/>
-      <c r="E73" s="112"/>
-      <c r="F73" s="112"/>
-      <c r="G73" s="112"/>
-      <c r="H73" s="112"/>
-      <c r="I73" s="112"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="115"/>
+      <c r="D73" s="115"/>
+      <c r="E73" s="115"/>
+      <c r="F73" s="115"/>
+      <c r="G73" s="115"/>
+      <c r="H73" s="115"/>
+      <c r="I73" s="115"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="113"/>
-      <c r="B74" s="113"/>
-      <c r="C74" s="113"/>
-      <c r="D74" s="113"/>
-      <c r="E74" s="113"/>
-      <c r="F74" s="113"/>
-      <c r="G74" s="113"/>
-      <c r="H74" s="113"/>
-      <c r="I74" s="113"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="116"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="116"/>
+      <c r="F74" s="116"/>
+      <c r="G74" s="116"/>
+      <c r="H74" s="116"/>
+      <c r="I74" s="116"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="71" t="s">
@@ -2865,28 +2865,28 @@
       <c r="I82" s="75"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="115" t="s">
+      <c r="A86" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="115"/>
-      <c r="C86" s="115"/>
-      <c r="D86" s="115"/>
-      <c r="E86" s="115"/>
-      <c r="F86" s="115"/>
-      <c r="G86" s="115"/>
-      <c r="H86" s="115"/>
-      <c r="I86" s="115"/>
+      <c r="B86" s="118"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="118"/>
+      <c r="H86" s="118"/>
+      <c r="I86" s="118"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="116"/>
-      <c r="B87" s="116"/>
-      <c r="C87" s="116"/>
-      <c r="D87" s="116"/>
-      <c r="E87" s="116"/>
-      <c r="F87" s="116"/>
-      <c r="G87" s="116"/>
-      <c r="H87" s="116"/>
-      <c r="I87" s="116"/>
+      <c r="A87" s="119"/>
+      <c r="B87" s="119"/>
+      <c r="C87" s="119"/>
+      <c r="D87" s="119"/>
+      <c r="E87" s="119"/>
+      <c r="F87" s="119"/>
+      <c r="G87" s="119"/>
+      <c r="H87" s="119"/>
+      <c r="I87" s="119"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
@@ -3030,28 +3030,28 @@
       <c r="A95" s="1"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="110" t="s">
+      <c r="A99" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="110"/>
-      <c r="C99" s="110"/>
-      <c r="D99" s="110"/>
-      <c r="E99" s="110"/>
-      <c r="F99" s="110"/>
-      <c r="G99" s="110"/>
-      <c r="H99" s="110"/>
-      <c r="I99" s="110"/>
+      <c r="B99" s="113"/>
+      <c r="C99" s="113"/>
+      <c r="D99" s="113"/>
+      <c r="E99" s="113"/>
+      <c r="F99" s="113"/>
+      <c r="G99" s="113"/>
+      <c r="H99" s="113"/>
+      <c r="I99" s="113"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="117"/>
-      <c r="B100" s="117"/>
-      <c r="C100" s="117"/>
-      <c r="D100" s="117"/>
-      <c r="E100" s="117"/>
-      <c r="F100" s="117"/>
-      <c r="G100" s="117"/>
-      <c r="H100" s="117"/>
-      <c r="I100" s="117"/>
+      <c r="A100" s="120"/>
+      <c r="B100" s="120"/>
+      <c r="C100" s="120"/>
+      <c r="D100" s="120"/>
+      <c r="E100" s="120"/>
+      <c r="F100" s="120"/>
+      <c r="G100" s="120"/>
+      <c r="H100" s="120"/>
+      <c r="I100" s="120"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="46" t="s">
@@ -3209,13 +3209,13 @@
       <c r="I107" s="58"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="106" t="s">
+      <c r="A111" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="B111" s="107"/>
-      <c r="C111" s="107"/>
-      <c r="D111" s="107"/>
-      <c r="E111" s="107"/>
+      <c r="B111" s="110"/>
+      <c r="C111" s="110"/>
+      <c r="D111" s="110"/>
+      <c r="E111" s="110"/>
       <c r="F111" s="83"/>
       <c r="G111" s="83"/>
       <c r="H111" s="83"/>
@@ -3453,13 +3453,13 @@
       <c r="I122" s="96"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="108" t="s">
+      <c r="A123" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B123" s="109"/>
-      <c r="C123" s="109"/>
-      <c r="D123" s="109"/>
-      <c r="E123" s="109"/>
+      <c r="B123" s="112"/>
+      <c r="C123" s="112"/>
+      <c r="D123" s="112"/>
+      <c r="E123" s="112"/>
       <c r="F123" s="97"/>
       <c r="G123" s="97"/>
       <c r="H123" s="97"/>
@@ -3659,7 +3659,7 @@
       <c r="I132" s="48"/>
     </row>
     <row r="133" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="102">
+      <c r="A133" s="105">
         <v>9</v>
       </c>
       <c r="B133" s="63" t="s">
@@ -3680,7 +3680,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="103"/>
+      <c r="A134" s="106"/>
       <c r="B134" s="23" t="s">
         <v>132</v>
       </c>
@@ -3700,7 +3700,7 @@
       <c r="L134" s="64"/>
     </row>
     <row r="135" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="104"/>
+      <c r="A135" s="107"/>
       <c r="B135" s="23" t="s">
         <v>133</v>
       </c>
@@ -3722,7 +3722,7 @@
       <c r="L135" s="64"/>
     </row>
     <row r="136" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="105">
+      <c r="A136" s="108">
         <v>10</v>
       </c>
       <c r="B136" s="52" t="s">
@@ -3739,7 +3739,7 @@
       <c r="I136" s="52"/>
     </row>
     <row r="137" spans="1:12" s="69" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A137" s="105"/>
+      <c r="A137" s="108"/>
       <c r="B137" s="66" t="s">
         <v>9</v>
       </c>
@@ -3758,7 +3758,7 @@
       <c r="I137" s="66"/>
     </row>
     <row r="138" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="105"/>
+      <c r="A138" s="108"/>
       <c r="B138" s="23" t="s">
         <v>135</v>
       </c>
@@ -3775,7 +3775,7 @@
       <c r="I138" s="52"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" s="105"/>
+      <c r="A139" s="108"/>
       <c r="B139" s="23" t="s">
         <v>117</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="I139" s="23"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" s="105"/>
+      <c r="A140" s="108"/>
       <c r="B140" s="23" t="s">
         <v>83</v>
       </c>
@@ -3807,7 +3807,7 @@
       <c r="I140" s="23"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="105"/>
+      <c r="A141" s="108"/>
       <c r="B141" s="23" t="s">
         <v>43</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="I141" s="23"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="105"/>
+      <c r="A142" s="108"/>
       <c r="B142" s="23" t="s">
         <v>44</v>
       </c>
@@ -3881,11 +3881,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A123:E123"/>
     <mergeCell ref="A2:I3"/>
     <mergeCell ref="A12:I13"/>
     <mergeCell ref="A24:I25"/>
@@ -3898,6 +3893,11 @@
     <mergeCell ref="E56:I56"/>
     <mergeCell ref="A61:A66"/>
     <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A123:E123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3908,8 +3908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3956,29 +3956,30 @@
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>151</v>
+      <c r="A10" s="125">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="125">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>144</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="125"/>
+      <c r="B11" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C11" t="s">
         <v>141</v>
@@ -3987,16 +3988,18 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="125"/>
       <c r="B12" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="125"/>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>5</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
         <v>141</v>
@@ -4004,10 +4007,10 @@
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
         <v>141</v>
@@ -4015,43 +4018,43 @@
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
         <v>141</v>
-      </c>
-      <c r="D16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>8</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ADoc Nhóm 2 (Nghĩa - Tự - Ánh)/Database ToCoClothes ( Nghĩa - Tự - Ánh).xlsx
+++ b/ADoc Nhóm 2 (Nghĩa - Tự - Ánh)/Database ToCoClothes ( Nghĩa - Tự - Ánh).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="157">
   <si>
     <t>No.</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>Lấy toàn bộ sản phẩm có thêm stockTotal mô tả số lượng sản phẩm tồn kho và totalPrice- giá sản phẩm theo mỗi [size và màu sắc] trong một danh mục( truyền params categoryId) || StockTotal&gt;0 || Hien thi sắp xếp theo giảm giá nhiều nhất</t>
+  </si>
+  <si>
+    <t>Hiển thị các đơn hàng từ ngày-ngày</t>
   </si>
 </sst>
 </file>
@@ -1038,6 +1041,36 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1045,6 +1078,12 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1067,42 +1106,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1433,28 +1436,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
     </row>
     <row r="3" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
     </row>
     <row r="4" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
@@ -1595,28 +1598,28 @@
       <c r="I9" s="23"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="116"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="71" t="s">
@@ -1795,28 +1798,28 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="117"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
     </row>
     <row r="26" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
@@ -1979,7 +1982,7 @@
       <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="102">
+      <c r="A33" s="112">
         <v>7</v>
       </c>
       <c r="B33" s="34" t="s">
@@ -1996,7 +1999,7 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="103"/>
+      <c r="A34" s="113"/>
       <c r="B34" s="30" t="s">
         <v>26</v>
       </c>
@@ -2015,7 +2018,7 @@
       <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="103"/>
+      <c r="A35" s="113"/>
       <c r="B35" s="30" t="s">
         <v>25</v>
       </c>
@@ -2036,7 +2039,7 @@
       <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="103"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="30" t="s">
         <v>54</v>
       </c>
@@ -2055,7 +2058,7 @@
       <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="103"/>
+      <c r="A37" s="113"/>
       <c r="B37" s="30" t="s">
         <v>53</v>
       </c>
@@ -2074,7 +2077,7 @@
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" s="21" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A38" s="103"/>
+      <c r="A38" s="113"/>
       <c r="B38" s="37" t="s">
         <v>27</v>
       </c>
@@ -2091,7 +2094,7 @@
       <c r="I38" s="42"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="103"/>
+      <c r="A39" s="113"/>
       <c r="B39" s="1" t="s">
         <v>51</v>
       </c>
@@ -2110,7 +2113,7 @@
       <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="103"/>
+      <c r="A40" s="113"/>
       <c r="B40" s="1" t="s">
         <v>109</v>
       </c>
@@ -2129,7 +2132,7 @@
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="103"/>
+      <c r="A41" s="113"/>
       <c r="B41" s="1" t="s">
         <v>110</v>
       </c>
@@ -2148,7 +2151,7 @@
       <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="104"/>
+      <c r="A42" s="114"/>
       <c r="B42" s="1" t="s">
         <v>52</v>
       </c>
@@ -2167,7 +2170,7 @@
       <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="102">
+      <c r="A43" s="112">
         <v>8</v>
       </c>
       <c r="B43" s="34" t="s">
@@ -2186,7 +2189,7 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="103"/>
+      <c r="A44" s="113"/>
       <c r="B44" s="30" t="s">
         <v>96</v>
       </c>
@@ -2205,7 +2208,7 @@
       <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="103"/>
+      <c r="A45" s="113"/>
       <c r="B45" s="30" t="s">
         <v>54</v>
       </c>
@@ -2224,7 +2227,7 @@
       <c r="I45" s="30"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="103"/>
+      <c r="A46" s="113"/>
       <c r="B46" s="30" t="s">
         <v>53</v>
       </c>
@@ -2243,7 +2246,7 @@
       <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="103"/>
+      <c r="A47" s="113"/>
       <c r="B47" s="30" t="s">
         <v>26</v>
       </c>
@@ -2262,7 +2265,7 @@
       <c r="I47" s="30"/>
     </row>
     <row r="48" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A48" s="103"/>
+      <c r="A48" s="113"/>
       <c r="B48" s="37" t="s">
         <v>27</v>
       </c>
@@ -2273,15 +2276,15 @@
       <c r="E48" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="121" t="s">
+      <c r="F48" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="122"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="111"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="103"/>
+      <c r="A49" s="113"/>
       <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
@@ -2300,7 +2303,7 @@
       <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="103"/>
+      <c r="A50" s="113"/>
       <c r="B50" s="1" t="s">
         <v>109</v>
       </c>
@@ -2319,7 +2322,7 @@
       <c r="I50" s="30"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="103"/>
+      <c r="A51" s="113"/>
       <c r="B51" s="1" t="s">
         <v>110</v>
       </c>
@@ -2338,7 +2341,7 @@
       <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="103"/>
+      <c r="A52" s="113"/>
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
@@ -2357,7 +2360,7 @@
       <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="104"/>
+      <c r="A53" s="114"/>
       <c r="B53" s="30" t="s">
         <v>49</v>
       </c>
@@ -2376,7 +2379,7 @@
       <c r="I53" s="30"/>
     </row>
     <row r="54" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="102">
+      <c r="A54" s="112">
         <v>9</v>
       </c>
       <c r="B54" s="34" t="s">
@@ -2395,7 +2398,7 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="103"/>
+      <c r="A55" s="113"/>
       <c r="B55" s="30" t="s">
         <v>55</v>
       </c>
@@ -2412,7 +2415,7 @@
       <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9" s="21" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A56" s="103"/>
+      <c r="A56" s="113"/>
       <c r="B56" s="37" t="s">
         <v>57</v>
       </c>
@@ -2420,16 +2423,16 @@
         <v>38</v>
       </c>
       <c r="D56" s="39"/>
-      <c r="E56" s="123" t="s">
+      <c r="E56" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="121"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="122"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="111"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="103"/>
+      <c r="A57" s="113"/>
       <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
@@ -2446,7 +2449,7 @@
       <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="103"/>
+      <c r="A58" s="113"/>
       <c r="B58" s="1" t="s">
         <v>91</v>
       </c>
@@ -2463,7 +2466,7 @@
       <c r="I58" s="30"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="103"/>
+      <c r="A59" s="113"/>
       <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
@@ -2482,7 +2485,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="104"/>
+      <c r="A60" s="114"/>
       <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
@@ -2501,7 +2504,7 @@
       <c r="I60" s="30"/>
     </row>
     <row r="61" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="124">
+      <c r="A61" s="116">
         <v>10</v>
       </c>
       <c r="B61" s="34" t="s">
@@ -2518,7 +2521,7 @@
       <c r="I61" s="34"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="124"/>
+      <c r="A62" s="116"/>
       <c r="B62" s="30" t="s">
         <v>112</v>
       </c>
@@ -2537,7 +2540,7 @@
       <c r="I62" s="30"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="124"/>
+      <c r="A63" s="116"/>
       <c r="B63" s="30" t="s">
         <v>117</v>
       </c>
@@ -2552,7 +2555,7 @@
       <c r="I63" s="30"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="124"/>
+      <c r="A64" s="116"/>
       <c r="B64" s="30" t="s">
         <v>41</v>
       </c>
@@ -2567,7 +2570,7 @@
       <c r="I64" s="30"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="124"/>
+      <c r="A65" s="116"/>
       <c r="B65" s="30" t="s">
         <v>43</v>
       </c>
@@ -2582,7 +2585,7 @@
       <c r="I65" s="30"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="124"/>
+      <c r="A66" s="116"/>
       <c r="B66" s="30" t="s">
         <v>44</v>
       </c>
@@ -2597,7 +2600,7 @@
       <c r="I66" s="30"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="102">
+      <c r="A67" s="112">
         <v>11</v>
       </c>
       <c r="B67" s="34" t="s">
@@ -2614,7 +2617,7 @@
       <c r="I67" s="34"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="103"/>
+      <c r="A68" s="113"/>
       <c r="B68" s="30" t="s">
         <v>101</v>
       </c>
@@ -2633,7 +2636,7 @@
       <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="103"/>
+      <c r="A69" s="113"/>
       <c r="B69" s="30" t="s">
         <v>102</v>
       </c>
@@ -2652,7 +2655,7 @@
       <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="104"/>
+      <c r="A70" s="114"/>
       <c r="B70" s="30" t="s">
         <v>93</v>
       </c>
@@ -2669,28 +2672,28 @@
       <c r="I70" s="30"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="115" t="s">
+      <c r="A73" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="115"/>
-      <c r="C73" s="115"/>
-      <c r="D73" s="115"/>
-      <c r="E73" s="115"/>
-      <c r="F73" s="115"/>
-      <c r="G73" s="115"/>
-      <c r="H73" s="115"/>
-      <c r="I73" s="115"/>
+      <c r="B73" s="104"/>
+      <c r="C73" s="104"/>
+      <c r="D73" s="104"/>
+      <c r="E73" s="104"/>
+      <c r="F73" s="104"/>
+      <c r="G73" s="104"/>
+      <c r="H73" s="104"/>
+      <c r="I73" s="104"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="116"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="116"/>
-      <c r="D74" s="116"/>
-      <c r="E74" s="116"/>
-      <c r="F74" s="116"/>
-      <c r="G74" s="116"/>
-      <c r="H74" s="116"/>
-      <c r="I74" s="116"/>
+      <c r="A74" s="105"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="105"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="71" t="s">
@@ -2865,28 +2868,28 @@
       <c r="I82" s="75"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="118" t="s">
+      <c r="A86" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="B86" s="118"/>
-      <c r="C86" s="118"/>
-      <c r="D86" s="118"/>
-      <c r="E86" s="118"/>
-      <c r="F86" s="118"/>
-      <c r="G86" s="118"/>
-      <c r="H86" s="118"/>
-      <c r="I86" s="118"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="107"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="107"/>
+      <c r="I86" s="107"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="119"/>
-      <c r="B87" s="119"/>
-      <c r="C87" s="119"/>
-      <c r="D87" s="119"/>
-      <c r="E87" s="119"/>
-      <c r="F87" s="119"/>
-      <c r="G87" s="119"/>
-      <c r="H87" s="119"/>
-      <c r="I87" s="119"/>
+      <c r="A87" s="108"/>
+      <c r="B87" s="108"/>
+      <c r="C87" s="108"/>
+      <c r="D87" s="108"/>
+      <c r="E87" s="108"/>
+      <c r="F87" s="108"/>
+      <c r="G87" s="108"/>
+      <c r="H87" s="108"/>
+      <c r="I87" s="108"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
@@ -3030,28 +3033,28 @@
       <c r="A95" s="1"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="113" t="s">
+      <c r="A99" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="113"/>
-      <c r="C99" s="113"/>
-      <c r="D99" s="113"/>
-      <c r="E99" s="113"/>
-      <c r="F99" s="113"/>
-      <c r="G99" s="113"/>
-      <c r="H99" s="113"/>
-      <c r="I99" s="113"/>
+      <c r="B99" s="102"/>
+      <c r="C99" s="102"/>
+      <c r="D99" s="102"/>
+      <c r="E99" s="102"/>
+      <c r="F99" s="102"/>
+      <c r="G99" s="102"/>
+      <c r="H99" s="102"/>
+      <c r="I99" s="102"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="120"/>
-      <c r="B100" s="120"/>
-      <c r="C100" s="120"/>
-      <c r="D100" s="120"/>
-      <c r="E100" s="120"/>
-      <c r="F100" s="120"/>
-      <c r="G100" s="120"/>
-      <c r="H100" s="120"/>
-      <c r="I100" s="120"/>
+      <c r="A100" s="109"/>
+      <c r="B100" s="109"/>
+      <c r="C100" s="109"/>
+      <c r="D100" s="109"/>
+      <c r="E100" s="109"/>
+      <c r="F100" s="109"/>
+      <c r="G100" s="109"/>
+      <c r="H100" s="109"/>
+      <c r="I100" s="109"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="46" t="s">
@@ -3209,13 +3212,13 @@
       <c r="I107" s="58"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="109" t="s">
+      <c r="A111" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="B111" s="110"/>
-      <c r="C111" s="110"/>
-      <c r="D111" s="110"/>
-      <c r="E111" s="110"/>
+      <c r="B111" s="122"/>
+      <c r="C111" s="122"/>
+      <c r="D111" s="122"/>
+      <c r="E111" s="122"/>
       <c r="F111" s="83"/>
       <c r="G111" s="83"/>
       <c r="H111" s="83"/>
@@ -3453,13 +3456,13 @@
       <c r="I122" s="96"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="111" t="s">
+      <c r="A123" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="B123" s="112"/>
-      <c r="C123" s="112"/>
-      <c r="D123" s="112"/>
-      <c r="E123" s="112"/>
+      <c r="B123" s="124"/>
+      <c r="C123" s="124"/>
+      <c r="D123" s="124"/>
+      <c r="E123" s="124"/>
       <c r="F123" s="97"/>
       <c r="G123" s="97"/>
       <c r="H123" s="97"/>
@@ -3659,7 +3662,7 @@
       <c r="I132" s="48"/>
     </row>
     <row r="133" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="105">
+      <c r="A133" s="117">
         <v>9</v>
       </c>
       <c r="B133" s="63" t="s">
@@ -3680,7 +3683,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="106"/>
+      <c r="A134" s="118"/>
       <c r="B134" s="23" t="s">
         <v>132</v>
       </c>
@@ -3700,7 +3703,7 @@
       <c r="L134" s="64"/>
     </row>
     <row r="135" spans="1:12" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="107"/>
+      <c r="A135" s="119"/>
       <c r="B135" s="23" t="s">
         <v>133</v>
       </c>
@@ -3722,7 +3725,7 @@
       <c r="L135" s="64"/>
     </row>
     <row r="136" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="108">
+      <c r="A136" s="120">
         <v>10</v>
       </c>
       <c r="B136" s="52" t="s">
@@ -3739,7 +3742,7 @@
       <c r="I136" s="52"/>
     </row>
     <row r="137" spans="1:12" s="69" customFormat="1" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A137" s="108"/>
+      <c r="A137" s="120"/>
       <c r="B137" s="66" t="s">
         <v>9</v>
       </c>
@@ -3758,7 +3761,7 @@
       <c r="I137" s="66"/>
     </row>
     <row r="138" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="108"/>
+      <c r="A138" s="120"/>
       <c r="B138" s="23" t="s">
         <v>135</v>
       </c>
@@ -3775,7 +3778,7 @@
       <c r="I138" s="52"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" s="108"/>
+      <c r="A139" s="120"/>
       <c r="B139" s="23" t="s">
         <v>117</v>
       </c>
@@ -3792,7 +3795,7 @@
       <c r="I139" s="23"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" s="108"/>
+      <c r="A140" s="120"/>
       <c r="B140" s="23" t="s">
         <v>83</v>
       </c>
@@ -3807,7 +3810,7 @@
       <c r="I140" s="23"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="108"/>
+      <c r="A141" s="120"/>
       <c r="B141" s="23" t="s">
         <v>43</v>
       </c>
@@ -3822,7 +3825,7 @@
       <c r="I141" s="23"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="108"/>
+      <c r="A142" s="120"/>
       <c r="B142" s="23" t="s">
         <v>44</v>
       </c>
@@ -3881,6 +3884,10 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A136:A142"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A123:E123"/>
     <mergeCell ref="A2:I3"/>
     <mergeCell ref="A12:I13"/>
     <mergeCell ref="A24:I25"/>
@@ -3894,10 +3901,6 @@
     <mergeCell ref="A61:A66"/>
     <mergeCell ref="A54:A60"/>
     <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="A136:A142"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A123:E123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3906,10 +3909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D17"/>
+  <dimension ref="A4:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4052,6 +4055,14 @@
         <v>141</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:A12"/>
